--- a/Database.xlsx
+++ b/Database.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Module 6\Thuong-Mai-Dien-Tu\tmdt-be\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93D223D8-90DD-4659-A9E7-77995D5B4622}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A363007-EEF2-4DC6-94CF-DCF76562ABB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{2D254D07-8043-4792-B607-9D8D98CD8F88}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="42">
   <si>
     <t>Product</t>
   </si>
@@ -111,6 +111,57 @@
   </si>
   <si>
     <t>emailUser</t>
+  </si>
+  <si>
+    <t>cart</t>
+  </si>
+  <si>
+    <t>idCart</t>
+  </si>
+  <si>
+    <t>CartDetail</t>
+  </si>
+  <si>
+    <t>idCartDetail</t>
+  </si>
+  <si>
+    <t>statusCart</t>
+  </si>
+  <si>
+    <t>addressUser</t>
+  </si>
+  <si>
+    <t>timePost</t>
+  </si>
+  <si>
+    <t>idAddress</t>
+  </si>
+  <si>
+    <t>province</t>
+  </si>
+  <si>
+    <t>district</t>
+  </si>
+  <si>
+    <t>phoneAddress</t>
+  </si>
+  <si>
+    <t>typeAddress</t>
+  </si>
+  <si>
+    <t>descriptionAddress</t>
+  </si>
+  <si>
+    <t>quantityCart</t>
+  </si>
+  <si>
+    <t>priceInCart</t>
+  </si>
+  <si>
+    <t>timeCartDetail</t>
+  </si>
+  <si>
+    <t>timePayCart</t>
   </si>
 </sst>
 </file>
@@ -502,7 +553,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6B7EDF8-FA5E-4FB9-955E-F64E8427AEDF}">
-  <dimension ref="C5:K13"/>
+  <dimension ref="C5:M22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>
@@ -512,11 +563,13 @@
   <cols>
     <col min="3" max="3" width="22.5" customWidth="1"/>
     <col min="5" max="5" width="17.125" customWidth="1"/>
+    <col min="6" max="6" width="25.75" customWidth="1"/>
     <col min="9" max="9" width="16.375" customWidth="1"/>
     <col min="11" max="11" width="15" customWidth="1"/>
+    <col min="13" max="13" width="18.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="3:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:13" ht="15" x14ac:dyDescent="0.25">
       <c r="C5" s="2" t="s">
         <v>0</v>
       </c>
@@ -529,8 +582,11 @@
       <c r="K5" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="6" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C6" t="s">
         <v>3</v>
       </c>
@@ -543,8 +599,11 @@
       <c r="K6" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="7" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C7" t="s">
         <v>4</v>
       </c>
@@ -557,8 +616,11 @@
       <c r="K7" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="8" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C8" t="s">
         <v>5</v>
       </c>
@@ -568,8 +630,11 @@
       <c r="K8" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="9" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C9" t="s">
         <v>6</v>
       </c>
@@ -579,8 +644,11 @@
       <c r="K9" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="10" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C10" t="s">
         <v>7</v>
       </c>
@@ -590,8 +658,11 @@
       <c r="K10" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="11" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C11" t="s">
         <v>8</v>
       </c>
@@ -601,18 +672,82 @@
       <c r="K11" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="12" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C12" t="s">
         <v>9</v>
       </c>
       <c r="I12" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="13" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C13" t="s">
         <v>19</v>
+      </c>
+      <c r="M13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="F16" t="s">
+        <v>27</v>
+      </c>
+      <c r="I16" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="6:9" x14ac:dyDescent="0.2">
+      <c r="F17" t="s">
+        <v>28</v>
+      </c>
+      <c r="I17" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="6:9" x14ac:dyDescent="0.2">
+      <c r="F18" t="s">
+        <v>26</v>
+      </c>
+      <c r="I18" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="6:9" x14ac:dyDescent="0.2">
+      <c r="F19" t="s">
+        <v>3</v>
+      </c>
+      <c r="I19" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" spans="6:9" x14ac:dyDescent="0.2">
+      <c r="F20" t="s">
+        <v>38</v>
+      </c>
+      <c r="I20" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="6:9" x14ac:dyDescent="0.2">
+      <c r="F21" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="22" spans="6:9" x14ac:dyDescent="0.2">
+      <c r="F22" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
